--- a/ToolboxForSimulator/condition/Result_data.xlsx
+++ b/ToolboxForSimulator/condition/Result_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttake\MATLAB\Projects\3ME1_Experiment1\ToolboxForSimulator\condition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FFF42E-5D46-4228-AE3B-17B99A6A6A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669AC8AE-6179-4E6F-BED9-7058E09FEDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="7605" windowWidth="21600" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tensile" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="10">
   <si>
     <t>double</t>
   </si>
@@ -64,15 +64,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AftLength</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PreLength</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D90364-060F-4AE6-81CF-5D928CF3DF69}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -468,21 +468,24 @@
     <col min="1" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -490,37 +493,46 @@
         <v>1179.0445277777776</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2">
+        <v>84.083333333333329</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2">
         <v>105.06666666666666</v>
       </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2">
         <v>36.799999999999997</v>
       </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2">
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2">
         <v>70.75</v>
       </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -534,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>67.3</v>
+        <v>65.416666666666671</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -543,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="H3">
-        <v>7.9</v>
+        <v>67.3</v>
       </c>
       <c r="I3" t="s">
         <v>0</v>
@@ -551,14 +563,23 @@
       <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="K3" t="s">
-        <v>7</v>
+      <c r="K3">
+        <v>7.9</v>
       </c>
       <c r="L3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -572,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>73.733333333333334</v>
+        <v>61.883333333333333</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -581,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="H4">
-        <v>17.5</v>
+        <v>73.733333333333334</v>
       </c>
       <c r="I4" t="s">
         <v>0</v>
@@ -590,9 +611,18 @@
         <v>4</v>
       </c>
       <c r="K4">
+        <v>17.5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4">
         <v>99.6</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -604,10 +634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0355E27C-ADAD-438D-8DD0-3CACDD5535E3}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -615,12 +645,12 @@
     <col min="1" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -628,8 +658,11 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -660,16 +693,26 @@
       <c r="J2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
-        <v>7</v>
+      <c r="K2">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>111.75</v>
+      </c>
+      <c r="O2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ToolboxForSimulator/condition/Result_data.xlsx
+++ b/ToolboxForSimulator/condition/Result_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttake\MATLAB\Projects\3ME1_Experiment1\ToolboxForSimulator\condition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669AC8AE-6179-4E6F-BED9-7058E09FEDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D6A0C5-C9B5-4664-98E3-7345AAE66AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tensile" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="16">
   <si>
     <t>double</t>
   </si>
@@ -73,6 +73,30 @@
   </si>
   <si>
     <t>PreLength</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Puy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ply</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>angle_beta</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -457,10 +481,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D90364-060F-4AE6-81CF-5D928CF3DF69}">
+  <dimension ref="A1:AA4"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>154.42956741656164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>84.083333333333329</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>105.06666666666666</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>70.75</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <f>3.98*15</f>
+        <v>59.7</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <f>3.38*15</f>
+        <v>50.699999999999996</v>
+      </c>
+      <c r="U2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <f>3.2*15</f>
+        <v>48</v>
+      </c>
+      <c r="X2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2">
+        <f>6.07-1.2</f>
+        <v>4.87</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>158.84388967815602</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>65.416666666666671</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>67.3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>7.9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>55.65</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <f>3.72*15</f>
+        <v>55.800000000000004</v>
+      </c>
+      <c r="X3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <f>3.72*15</f>
+        <v>55.800000000000004</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>164.79607678335336</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>61.883333333333333</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>73.733333333333334</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>17.5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>99.6</v>
+      </c>
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <f>6.07*15</f>
+        <v>91.050000000000011</v>
+      </c>
+      <c r="U4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <f>6.4*15</f>
+        <v>96</v>
+      </c>
+      <c r="X4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <f>6.4*15</f>
+        <v>96</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0355E27C-ADAD-438D-8DD0-3CACDD5535E3}">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -473,16 +803,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
@@ -490,184 +820,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1179.0445277777776</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>84.083333333333329</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>105.06666666666666</v>
-      </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>70.75</v>
-      </c>
-      <c r="O2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>930.31222222222232</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>65.416666666666671</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>67.3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>7.9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>896.40071111111115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>61.883333333333333</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>73.733333333333334</v>
-      </c>
-      <c r="I4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <v>17.5</v>
-      </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <v>99.6</v>
-      </c>
-      <c r="O4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0355E27C-ADAD-438D-8DD0-3CACDD5535E3}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1186.9293333333335</v>
+        <v>154.06512621416894</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -707,6 +860,11 @@
       </c>
       <c r="O2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -718,10 +876,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E905AA-96E6-C642-9D31-10C480D0C57C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -729,12 +887,15 @@
     <col min="1" max="1" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -744,8 +905,17 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>95.1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -755,8 +925,17 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -764,6 +943,26 @@
         <v>80.534166666666664</v>
       </c>
       <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>136</v>
+      </c>
+      <c r="F5" t="s">
         <v>0</v>
       </c>
     </row>

--- a/ToolboxForSimulator/condition/Result_data.xlsx
+++ b/ToolboxForSimulator/condition/Result_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttake\MATLAB\Projects\3ME1_Experiment1\ToolboxForSimulator\condition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D6A0C5-C9B5-4664-98E3-7345AAE66AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E46BF4-6098-4530-A2D9-5C7119E0374F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tensile" sheetId="3" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -879,7 +879,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -900,7 +900,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>80.367083333333341</v>
+        <v>80.300277777777794</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>81.473333333333358</v>
+        <v>80.666666666666686</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>80.534166666666664</v>
+        <v>80.601111111111109</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
